--- a/Resources/schools_complete.xlsx
+++ b/Resources/schools_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Desktop/School_District_Analysis/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B5698D-6C29-0A47-86D7-DE9F7DBCCA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A91D40-14D4-0D4B-86A8-D0B3078A70B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="15960" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="15960" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - schools_complete" sheetId="1" r:id="rId1"/>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:IV16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
